--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Pspn</t>
+  </si>
+  <si>
+    <t>Gfra4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pspn</t>
-  </si>
-  <si>
-    <t>Gfra4</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.007306</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H2">
-        <v>3.021918</v>
+        <v>0.633539</v>
       </c>
       <c r="I2">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J2">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +561,22 @@
         <v>4.802242</v>
       </c>
       <c r="O2">
-        <v>0.5382084054905698</v>
+        <v>0.5378025812999049</v>
       </c>
       <c r="P2">
-        <v>0.5382084054905698</v>
+        <v>0.5378025812999049</v>
       </c>
       <c r="Q2">
-        <v>1.612442393350667</v>
+        <v>0.3380452882708889</v>
       </c>
       <c r="R2">
-        <v>14.511981540156</v>
+        <v>3.042407594438</v>
       </c>
       <c r="S2">
-        <v>0.3162519256621975</v>
+        <v>0.09320829367002825</v>
       </c>
       <c r="T2">
-        <v>0.3162519256621975</v>
+        <v>0.09320829367002824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.007306</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H3">
-        <v>3.021918</v>
+        <v>0.633539</v>
       </c>
       <c r="I3">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J3">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.255017</v>
+        <v>1.307232666666666</v>
       </c>
       <c r="N3">
-        <v>3.765051</v>
+        <v>3.921698</v>
       </c>
       <c r="O3">
-        <v>0.4219658433083287</v>
+        <v>0.4391905504717742</v>
       </c>
       <c r="P3">
-        <v>0.4219658433083288</v>
+        <v>0.4391905504717742</v>
       </c>
       <c r="Q3">
-        <v>1.264186154202</v>
+        <v>0.2760609588024444</v>
       </c>
       <c r="R3">
-        <v>11.377675387818</v>
+        <v>2.484548629222</v>
       </c>
       <c r="S3">
-        <v>0.2479476521521369</v>
+        <v>0.07611752570344484</v>
       </c>
       <c r="T3">
-        <v>0.2479476521521369</v>
+        <v>0.07611752570344484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.007306</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H4">
-        <v>3.021918</v>
+        <v>0.633539</v>
       </c>
       <c r="I4">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J4">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1184503333333333</v>
+        <v>0.068479</v>
       </c>
       <c r="N4">
-        <v>0.355351</v>
+        <v>0.205437</v>
       </c>
       <c r="O4">
-        <v>0.03982575120110137</v>
+        <v>0.02300686822832097</v>
       </c>
       <c r="P4">
-        <v>0.03982575120110137</v>
+        <v>0.02300686822832097</v>
       </c>
       <c r="Q4">
-        <v>0.1193157314686667</v>
+        <v>0.01446137239366667</v>
       </c>
       <c r="R4">
-        <v>1.073841583218</v>
+        <v>0.130152351543</v>
       </c>
       <c r="S4">
-        <v>0.02340166073179726</v>
+        <v>0.003987394268487426</v>
       </c>
       <c r="T4">
-        <v>0.02340166073179726</v>
+        <v>0.003987394268487426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3383276666666666</v>
+        <v>1.007306</v>
       </c>
       <c r="H5">
-        <v>1.014983</v>
+        <v>3.021918</v>
       </c>
       <c r="I5">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="J5">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,22 +747,22 @@
         <v>4.802242</v>
       </c>
       <c r="O5">
-        <v>0.5382084054905698</v>
+        <v>0.5378025812999049</v>
       </c>
       <c r="P5">
-        <v>0.5382084054905698</v>
+        <v>0.5378025812999049</v>
       </c>
       <c r="Q5">
-        <v>0.5415771102095555</v>
+        <v>1.612442393350667</v>
       </c>
       <c r="R5">
-        <v>4.874193991885999</v>
+        <v>14.511981540156</v>
       </c>
       <c r="S5">
-        <v>0.1062207274533572</v>
+        <v>0.4445942876298767</v>
       </c>
       <c r="T5">
-        <v>0.1062207274533572</v>
+        <v>0.4445942876298767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3383276666666666</v>
+        <v>1.007306</v>
       </c>
       <c r="H6">
-        <v>1.014983</v>
+        <v>3.021918</v>
       </c>
       <c r="I6">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="J6">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.255017</v>
+        <v>1.307232666666666</v>
       </c>
       <c r="N6">
-        <v>3.765051</v>
+        <v>3.921698</v>
       </c>
       <c r="O6">
-        <v>0.4219658433083287</v>
+        <v>0.4391905504717742</v>
       </c>
       <c r="P6">
-        <v>0.4219658433083288</v>
+        <v>0.4391905504717742</v>
       </c>
       <c r="Q6">
-        <v>0.4246069732369999</v>
+        <v>1.316783308529333</v>
       </c>
       <c r="R6">
-        <v>3.821462759132999</v>
+        <v>11.851049776764</v>
       </c>
       <c r="S6">
-        <v>0.08327911340556969</v>
+        <v>0.3630730247683294</v>
       </c>
       <c r="T6">
-        <v>0.0832791134055697</v>
+        <v>0.3630730247683294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3383276666666666</v>
+        <v>1.007306</v>
       </c>
       <c r="H7">
-        <v>1.014983</v>
+        <v>3.021918</v>
       </c>
       <c r="I7">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="J7">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,214 +865,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1184503333333333</v>
+        <v>0.068479</v>
       </c>
       <c r="N7">
-        <v>0.355351</v>
+        <v>0.205437</v>
       </c>
       <c r="O7">
-        <v>0.03982575120110137</v>
+        <v>0.02300686822832097</v>
       </c>
       <c r="P7">
-        <v>0.03982575120110137</v>
+        <v>0.02300686822832097</v>
       </c>
       <c r="Q7">
-        <v>0.04007502489255555</v>
+        <v>0.068979307574</v>
       </c>
       <c r="R7">
-        <v>0.360675224033</v>
+        <v>0.6208137681660001</v>
       </c>
       <c r="S7">
-        <v>0.007860004081693074</v>
+        <v>0.01901947395983355</v>
       </c>
       <c r="T7">
-        <v>0.007860004081693074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.3686343333333333</v>
-      </c>
-      <c r="H8">
-        <v>1.105903</v>
-      </c>
-      <c r="I8">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="J8">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.600747333333333</v>
-      </c>
-      <c r="N8">
-        <v>4.802242</v>
-      </c>
-      <c r="O8">
-        <v>0.5382084054905698</v>
-      </c>
-      <c r="P8">
-        <v>0.5382084054905698</v>
-      </c>
-      <c r="Q8">
-        <v>0.5900904260584444</v>
-      </c>
-      <c r="R8">
-        <v>5.310813834526</v>
-      </c>
-      <c r="S8">
-        <v>0.1157357523750152</v>
-      </c>
-      <c r="T8">
-        <v>0.1157357523750152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.3686343333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.105903</v>
-      </c>
-      <c r="I9">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="J9">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.255017</v>
-      </c>
-      <c r="N9">
-        <v>3.765051</v>
-      </c>
-      <c r="O9">
-        <v>0.4219658433083287</v>
-      </c>
-      <c r="P9">
-        <v>0.4219658433083288</v>
-      </c>
-      <c r="Q9">
-        <v>0.462642355117</v>
-      </c>
-      <c r="R9">
-        <v>4.163781196053</v>
-      </c>
-      <c r="S9">
-        <v>0.09073907775062216</v>
-      </c>
-      <c r="T9">
-        <v>0.09073907775062218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.3686343333333333</v>
-      </c>
-      <c r="H10">
-        <v>1.105903</v>
-      </c>
-      <c r="I10">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="J10">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1184503333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.355351</v>
-      </c>
-      <c r="O10">
-        <v>0.03982575120110137</v>
-      </c>
-      <c r="P10">
-        <v>0.03982575120110137</v>
-      </c>
-      <c r="Q10">
-        <v>0.04366485966144444</v>
-      </c>
-      <c r="R10">
-        <v>0.392983736953</v>
-      </c>
-      <c r="S10">
-        <v>0.008564086387611041</v>
-      </c>
-      <c r="T10">
-        <v>0.008564086387611041</v>
+        <v>0.01901947395983355</v>
       </c>
     </row>
   </sheetData>
